--- a/data/trans_orig/IP16A11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74AE76F1-4FD3-41BF-B0DC-1CFDF1D3465A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BDA3C35-5B48-4BED-9344-AC797DDF8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D786891A-760D-4C42-8F44-3CE96753E80F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7BFEC88A-8E5B-4B6E-BE56-D04CA8094ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>23,53%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>76,47%</t>
   </si>
   <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>72,29%</t>
   </si>
   <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>31,83%</t>
   </si>
   <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>35,1%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
   </si>
   <si>
     <t>68,17%</t>
   </si>
   <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>61,26%</t>
   </si>
   <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>64,9%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>34,43%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>33,76%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>34,1%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
   </si>
   <si>
     <t>65,57%</t>
   </si>
   <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F10D5E4-18A3-41F2-BAE8-6C936333B4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827FC6CF-659F-4101-AAA1-B04887F5AA43}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP16A11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BDA3C35-5B48-4BED-9344-AC797DDF8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC49EFBA-BF68-4620-B297-D76ED69EA25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7BFEC88A-8E5B-4B6E-BE56-D04CA8094ABF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{80BF2B0E-3447-4D4B-972B-C8775BD702DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si ha consumido medicinas para el dolor en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827FC6CF-659F-4101-AAA1-B04887F5AA43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AE0222-4B0A-4230-87BA-E34162D00FFB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -829,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3380</v>
+        <v>3278</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -844,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>3274</v>
+        <v>3470</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>6654</v>
+        <v>6748</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -880,10 +880,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>10986</v>
+        <v>11952</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -895,10 +895,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>8542</v>
+        <v>12197</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>19528</v>
+        <v>24149</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -931,25 +931,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
-        <v>14366</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
       <c r="I6" s="7">
-        <v>11816</v>
+        <v>15667</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>36</v>
       </c>
       <c r="N6" s="7">
-        <v>26182</v>
+        <v>30897</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -984,10 +984,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>36416</v>
+        <v>39635</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -999,10 +999,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7">
-        <v>39874</v>
+        <v>38261</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>76290</v>
+        <v>77896</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1035,10 +1035,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7">
-        <v>78001</v>
+        <v>82845</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1050,10 +1050,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="I8" s="7">
-        <v>63053</v>
+        <v>81763</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>202</v>
       </c>
       <c r="N8" s="7">
-        <v>141053</v>
+        <v>164607</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1086,25 +1086,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>147</v>
+      </c>
+      <c r="D9" s="7">
+        <v>122480</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>174</v>
       </c>
-      <c r="D9" s="7">
-        <v>114417</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>147</v>
-      </c>
       <c r="I9" s="7">
-        <v>102927</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>321</v>
       </c>
       <c r="N9" s="7">
-        <v>217343</v>
+        <v>242503</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1139,10 +1139,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>15240</v>
+        <v>14091</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1154,10 +1154,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>13960</v>
+        <v>16838</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>29199</v>
+        <v>30930</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1190,10 +1190,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>29026</v>
+        <v>27551</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1205,10 +1205,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>27395</v>
+        <v>30180</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>83</v>
       </c>
       <c r="N11" s="7">
-        <v>56422</v>
+        <v>57731</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1241,25 +1241,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7">
+        <v>41642</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>57</v>
       </c>
-      <c r="D12" s="7">
-        <v>44266</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>66</v>
-      </c>
       <c r="I12" s="7">
-        <v>41355</v>
+        <v>47018</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>85621</v>
+        <v>88661</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1294,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>55036</v>
+        <v>57005</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1309,10 +1309,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>57108</v>
+        <v>58569</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>169</v>
       </c>
       <c r="N13" s="7">
-        <v>112143</v>
+        <v>115574</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1345,10 +1345,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D14" s="7">
-        <v>118013</v>
+        <v>122347</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1360,10 +1360,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="I14" s="7">
-        <v>98990</v>
+        <v>124140</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>311</v>
       </c>
       <c r="N14" s="7">
-        <v>217003</v>
+        <v>246487</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1396,25 +1396,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>229</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179352</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>251</v>
       </c>
-      <c r="D15" s="7">
-        <v>173049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>229</v>
-      </c>
       <c r="I15" s="7">
-        <v>156098</v>
+        <v>182709</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>480</v>
       </c>
       <c r="N15" s="7">
-        <v>329146</v>
+        <v>362061</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
